--- a/data/trans_dic/Viv_Temp_insuf-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/Viv_Temp_insuf-Estudios-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.4042189781106237</v>
+        <v>0.4005296644670563</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.459758120345379</v>
+        <v>0.4600067228800112</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.4453060951297996</v>
+        <v>0.4430257110990946</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.485560920349431</v>
+        <v>0.4800535988210299</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5171759702923047</v>
+        <v>0.5148440045356377</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.491528695990133</v>
+        <v>0.491477414773256</v>
       </c>
     </row>
     <row r="7">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.3815196770075288</v>
+        <v>0.3815196770075287</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0.4007334014181102</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.3909981608614346</v>
+        <v>0.3909981608614347</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3580497796343237</v>
+        <v>0.3597238862252512</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3815285377667113</v>
+        <v>0.3819044385050796</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3759587106735925</v>
+        <v>0.3759004973950931</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4050483528460548</v>
+        <v>0.405863787048279</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4207748800464898</v>
+        <v>0.4228462092438501</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4070899816600583</v>
+        <v>0.4076571118214442</v>
       </c>
     </row>
     <row r="10">
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.3582586247235408</v>
+        <v>0.3582586247235409</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.3505904487341464</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3196631821689687</v>
+        <v>0.3185943585467777</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3209376046752768</v>
+        <v>0.3197072034418223</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3282448878372468</v>
+        <v>0.3294451111098263</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3931112637088707</v>
+        <v>0.395219757667836</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3831729770483517</v>
+        <v>0.3840753758242877</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3787983353182154</v>
+        <v>0.3817582052937648</v>
       </c>
     </row>
     <row r="13">
@@ -735,7 +735,7 @@
         <v>0.4099191916347775</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.3986877799146552</v>
+        <v>0.3986877799146551</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3695960986308396</v>
+        <v>0.3702681654371995</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.3961289869068766</v>
+        <v>0.3947246665928517</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3873977534250272</v>
+        <v>0.3874581965823046</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4050499201814632</v>
+        <v>0.4057667562225624</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.4237303373672813</v>
+        <v>0.423321160456151</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4110309291174951</v>
+        <v>0.4100354066126403</v>
       </c>
     </row>
     <row r="16">
@@ -910,13 +910,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>233852</v>
+        <v>231718</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>377939</v>
+        <v>378143</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>623681</v>
+        <v>620487</v>
       </c>
     </row>
     <row r="7">
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>280911</v>
+        <v>277725</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>425138</v>
+        <v>423221</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>688419</v>
+        <v>688347</v>
       </c>
     </row>
     <row r="8">
@@ -982,13 +982,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>798267</v>
+        <v>801999</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>828178</v>
+        <v>828994</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1654282</v>
+        <v>1654026</v>
       </c>
     </row>
     <row r="11">
@@ -999,13 +999,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>903049</v>
+        <v>904867</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>913369</v>
+        <v>917866</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>1791265</v>
+        <v>1793760</v>
       </c>
     </row>
     <row r="12">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>226208</v>
+        <v>225452</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>235073</v>
+        <v>234171</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>472705</v>
+        <v>474434</v>
       </c>
     </row>
     <row r="15">
@@ -1071,13 +1071,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>278183</v>
+        <v>279675</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>280657</v>
+        <v>281318</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>545507</v>
+        <v>549770</v>
       </c>
     </row>
     <row r="16">
@@ -1126,13 +1126,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1299374</v>
+        <v>1301737</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1475651</v>
+        <v>1470420</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>2805084</v>
+        <v>2805521</v>
       </c>
     </row>
     <row r="19">
@@ -1143,13 +1143,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>1424017</v>
+        <v>1426538</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>1578471</v>
+        <v>1576947</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>2976208</v>
+        <v>2968999</v>
       </c>
     </row>
     <row r="20">
